--- a/school_2/vor_spartac_2_floors.xlsx
+++ b/school_2/vor_spartac_2_floors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="19155" windowHeight="8520"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="19155" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -57,15 +57,6 @@
     <t>Объем, м²</t>
   </si>
   <si>
-    <t>по ж/б поверхностям</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> по газобетонному блоку и ПГП</t>
-  </si>
-  <si>
-    <t>2.057</t>
-  </si>
-  <si>
     <t>2.058</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
     <t>2.066</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Штукатурка стен  и базовая шпаклевка</t>
-  </si>
-  <si>
     <t>сумма:</t>
   </si>
   <si>
@@ -133,6 +118,9 @@
   </si>
   <si>
     <t>Ведомость работ и используемых материалов</t>
+  </si>
+  <si>
+    <t>2.063</t>
   </si>
 </sst>
 </file>
@@ -141,7 +129,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -194,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -281,21 +269,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -435,45 +408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -495,6 +429,51 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -505,7 +484,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,25 +495,25 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,107 +525,56 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,33 +588,63 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -993,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,56 +967,56 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="57" t="s">
-        <v>38</v>
+      <c r="C2" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="33">
+      <c r="B4" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="25">
         <v>1</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="26">
         <v>627.35</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="J4" s="36">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="25">
         <v>1</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="26">
         <v>3730.5</v>
       </c>
     </row>
@@ -1066,11 +1024,11 @@
       <c r="B5" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>33</v>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="10">
         <v>8</v>
@@ -1079,8 +1037,8 @@
         <f>F$4*E5</f>
         <v>5018.8</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="J5" s="8">
         <v>8</v>
       </c>
@@ -1090,11 +1048,11 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>27</v>
+      <c r="C6" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>6</v>
@@ -1102,26 +1060,26 @@
       <c r="E6" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="42">
         <f>F4*$E6*65</f>
         <v>40.777750000000005</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="J6" s="8">
         <v>1E-3</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="36">
         <f>K4*$E6*0.065*1000</f>
         <v>242.48250000000002</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>28</v>
+      <c r="C7" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>5</v>
@@ -1129,12 +1087,12 @@
       <c r="E7" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="43">
         <f>F$4*E7</f>
         <v>690.08500000000004</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="J7" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -1144,11 +1102,11 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>31</v>
+      <c r="B8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>6</v>
@@ -1156,26 +1114,26 @@
       <c r="E8" s="8">
         <v>0.32</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="42">
         <f>F$4*E$8*0.065*1000</f>
         <v>13048.880000000001</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="J8" s="8">
         <v>0.32</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="36">
         <f>K$4*J$8*0.065*1000</f>
         <v>77594.400000000009</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>32</v>
+      <c r="B9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
@@ -1183,26 +1141,26 @@
       <c r="E9" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="42">
         <f>F4*$E9*0.065*1000</f>
         <v>40.777750000000012</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="J9" s="8">
         <v>1E-3</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="36">
         <f>K4*$J9*0.065*1000</f>
         <v>242.48250000000002</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -1213,8 +1171,8 @@
       <c r="F10" s="9">
         <v>269.12</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
       <c r="J10" s="8">
         <v>1</v>
       </c>
@@ -1224,10 +1182,10 @@
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>6</v>
@@ -1239,8 +1197,8 @@
         <f>$F$4*E11</f>
         <v>125.47000000000001</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="J11" s="13">
         <v>0.2</v>
       </c>
@@ -1250,21 +1208,21 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1274,215 +1232,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="13.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="17" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="18"/>
+    <col min="2" max="2" width="13.7109375" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="22" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="9">
+        <v>35.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="27"/>
+      <c r="C4" s="9">
+        <v>35.08</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
-        <v>51.28</v>
-      </c>
-      <c r="D5" s="7">
-        <v>29.94</v>
-      </c>
-      <c r="E5" s="9">
-        <f>C5+D5</f>
-        <v>81.22</v>
+      <c r="C5" s="9">
+        <v>169.95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7">
-        <v>51.69</v>
-      </c>
-      <c r="D6" s="21">
-        <v>50.83</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6:E11" si="0">C6+D6</f>
-        <v>102.52</v>
+      <c r="C6" s="9">
+        <v>217.09</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>3</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21">
-        <v>18.690000000000001</v>
-      </c>
-      <c r="D7" s="21">
-        <v>69.78</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>88.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="9">
+        <v>65.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="21">
-        <v>72.16</v>
-      </c>
-      <c r="D8" s="21">
-        <v>133.6</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>205.76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <v>5</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="51">
+        <v>93.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="21">
-        <v>100.44</v>
-      </c>
-      <c r="D9" s="21">
-        <v>190.18</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>290.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="21">
-        <v>43.98</v>
-      </c>
-      <c r="D10" s="21">
-        <v>64.37</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="0"/>
-        <v>108.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>7</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="28">
-        <v>71.78</v>
-      </c>
-      <c r="D11" s="28">
-        <v>64.459999999999994</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" si="0"/>
-        <v>136.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="16">
-        <f>SUM(C5:C11)</f>
-        <v>410.02</v>
-      </c>
-      <c r="D12" s="16">
-        <f>SUM(D5:D11)</f>
-        <v>603.16000000000008</v>
-      </c>
-      <c r="E12" s="18">
-        <f>SUM(E5:E11)</f>
-        <v>1013.1800000000001</v>
-      </c>
+      <c r="C10" s="54">
+        <f>SUM(C3:C9)</f>
+        <v>627.35</v>
+      </c>
+      <c r="E10" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
